--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.83</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,25 +824,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -856,15 +986,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.36</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3414</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1767,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1783,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1799,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
+++ b/数据整理/stocks/A股/上证主板/600984-建设机械.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,323 +456,265 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3336</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2678</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2678</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1331</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -799,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -839,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>43.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4511</t>
+          <t>1.3414</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -877,26 +819,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>85.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -905,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -953,26 +895,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.1141</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -981,130 +923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>010487</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>中银顺盈回报一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>34.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3535</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,7 +1195,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1377,188 +1225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.98</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.06</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3414</t>
+          <t>0.3535</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2000</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1141</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010487</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银顺盈回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,7 +1289,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1623,36 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0689</t>
+          <t>0.4511</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1661,36 +1357,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.63</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0484</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1704,128 +1514,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.14</v>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>